--- a/output/0/tRNA-Cys-GCA-1-1.xlsx
+++ b/output/0/tRNA-Cys-GCA-1-1.xlsx
@@ -12,15 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="48">
   <si>
     <t>chr7</t>
   </si>
   <si>
-    <t>149006894</t>
-  </si>
-  <si>
-    <t>149006917</t>
+    <t>149007302</t>
+  </si>
+  <si>
+    <t>149007325</t>
   </si>
   <si>
     <t>0</t>
@@ -29,7 +29,7 @@
     <t>+</t>
   </si>
   <si>
-    <t>149006914</t>
+    <t>149007322</t>
   </si>
   <si>
     <t>150,150,150</t>
@@ -38,67 +38,43 @@
     <t>255,0,0</t>
   </si>
   <si>
-    <t>TTGGTGGCAGTGGCTGCTCA</t>
+    <t>GCATTTGACTGCAGATCAAG</t>
+  </si>
+  <si>
+    <t>AGG</t>
+  </si>
+  <si>
+    <t>This guide sequence is not unique in the genome. The specificity scores were not determined.</t>
+  </si>
+  <si>
+    <t>75% (58)</t>
+  </si>
+  <si>
+    <t>17% (28)</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>Sequence is not unique in genome</t>
+  </si>
+  <si>
+    <t>149007309</t>
+  </si>
+  <si>
+    <t>149007332</t>
+  </si>
+  <si>
+    <t>149007329</t>
+  </si>
+  <si>
+    <t>ACTGCAGATCAAGAGGTCCC</t>
   </si>
   <si>
     <t>TGG</t>
-  </si>
-  <si>
-    <t>This guide sequence is not unique in the genome. The specificity scores were not determined.</t>
-  </si>
-  <si>
-    <t>50% (50)</t>
-  </si>
-  <si>
-    <t>71% (55)</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>Sequence is not unique in genome</t>
-  </si>
-  <si>
-    <t>149007302</t>
-  </si>
-  <si>
-    <t>149007325</t>
-  </si>
-  <si>
-    <t>149007322</t>
-  </si>
-  <si>
-    <t>GCATTTGACTGCAGATCAAG</t>
-  </si>
-  <si>
-    <t>AGG</t>
-  </si>
-  <si>
-    <t>75% (58)</t>
-  </si>
-  <si>
-    <t>17% (28)</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>149007309</t>
-  </si>
-  <si>
-    <t>149007332</t>
-  </si>
-  <si>
-    <t>149007329</t>
-  </si>
-  <si>
-    <t>ACTGCAGATCAAGAGGTCCC</t>
   </si>
   <si>
     <t>72% (57)</t>
@@ -224,7 +200,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -421,13 +397,13 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H4" t="s">
         <v>6</v>
@@ -442,22 +418,22 @@
         <v>36</v>
       </c>
       <c r="L4" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="M4" t="s">
         <v>10</v>
       </c>
       <c r="N4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q4" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="R4" t="s">
         <v>15</v>
@@ -480,10 +456,10 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s">
         <v>43</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
       </c>
       <c r="G5" t="s">
         <v>42</v>
@@ -501,86 +477,27 @@
         <v>44</v>
       </c>
       <c r="L5" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="M5" t="s">
         <v>10</v>
       </c>
       <c r="N5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" t="s">
         <v>46</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>47</v>
       </c>
-      <c r="P5" t="s">
-        <v>48</v>
-      </c>
       <c r="Q5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="R5" t="s">
         <v>15</v>
       </c>
       <c r="S5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" t="s">
-        <v>52</v>
-      </c>
-      <c r="L6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" t="s">
-        <v>53</v>
-      </c>
-      <c r="O6" t="s">
-        <v>54</v>
-      </c>
-      <c r="P6" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>32</v>
-      </c>
-      <c r="R6" t="s">
-        <v>15</v>
-      </c>
-      <c r="S6" t="s">
         <v>3</v>
       </c>
     </row>
